--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenz/Documents/GitHub/nikolaus_allershausen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9E3C8-1B46-3D49-B6ED-BC7727122BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81B96E-B04B-D64B-9D8F-3A4C7DA52628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -347,12 +347,6 @@
     <t>11.591447</t>
   </si>
   <si>
-    <t>48.4332126</t>
-  </si>
-  <si>
-    <t>11.5140135</t>
-  </si>
-  <si>
     <t>48.429034</t>
   </si>
   <si>
@@ -438,13 +432,37 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>11.592902183532700</t>
+  </si>
+  <si>
+    <t>48.43560028076170</t>
+  </si>
+  <si>
+    <t>Amselweg 10, Allershausen</t>
+  </si>
+  <si>
+    <t>Atterstrasse 11a 85391 Aiterbach</t>
+  </si>
+  <si>
+    <t>48.4545783996582</t>
+  </si>
+  <si>
+    <t>11.603789329528809</t>
+  </si>
+  <si>
+    <t>11.5949299</t>
+  </si>
+  <si>
+    <t>48.4275164</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -475,6 +493,13 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -509,6 +534,8 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -564,7 +591,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G44">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Adresse"/>
@@ -779,11 +806,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="157" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -793,6 +820,7 @@
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -813,10 +841,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
@@ -836,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>
@@ -1433,11 +1461,11 @@
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" t="s">
-        <v>105</v>
+      <c r="F28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="22.5" customHeight="1">
@@ -1457,10 +1485,10 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="22.5" customHeight="1">
@@ -1480,10 +1508,10 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="22.5" customHeight="1">
@@ -1503,10 +1531,10 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="22.5" customHeight="1">
@@ -1526,10 +1554,10 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="22.5" customHeight="1">
@@ -1549,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="22.5" customHeight="1">
@@ -1572,10 +1600,10 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="22.5" customHeight="1">
@@ -1595,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="22.5" customHeight="1">
@@ -1618,10 +1646,10 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="22.5" customHeight="1">
@@ -1629,13 +1657,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -1652,13 +1680,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -1675,16 +1703,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
         <v>124</v>
@@ -1698,16 +1726,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
         <v>126</v>
@@ -1721,13 +1749,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -1744,48 +1772,70 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1"/>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:7" ht="15.75" customHeight="1"/>
@@ -2741,7 +2791,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
